--- a/BazaPolskichRodzinWGore.xlsx
+++ b/BazaPolskichRodzinWGore.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafal\Desktop\botanikaTesty\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988"/>
   </bookViews>
   <sheets>
-    <sheet name="Baza polskich" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Baza polskich" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,1480 +24,1633 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="488">
-  <si>
-    <t xml:space="preserve">Rodzina polska (13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodzina łacińska (14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rząd polska (15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rząd łacińska (16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadrząd polska (17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadrząd łacińska (18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podklasa polska (19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podklasa łacińska (20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klasa polska (21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klasa łacińska (22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podgromada polska (23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podgromada łacińska (24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gromada polska (25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gromada łacińska (26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Królestwo polska (27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Królestwo łacińska (28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klonowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aceraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Żabieńcowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alismatales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campanulatae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amentiferae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coniferopsida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okrytonasienne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angiospermae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paprotniki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pteridophyta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adiantowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adianthaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selerowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cistiflorae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asteridae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dicotyledoneae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagonasienne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gymnospermae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rośliny nasienne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spermatophyta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piżmaczkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adoxaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obrazkowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columniferae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centrospermae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eusporangiatae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lycophytina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agawowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agavaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arekowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arecales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disciflorae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dilleniidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ginkgoopsida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pterophytina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pryszczyrnicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aizoaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kokornakowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aristolochiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heteromerae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farinosae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoëtopsida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphenophytina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Żabieńcowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alismataceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asterales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrtiflorae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helobiae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptosporangiatae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szarłatowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaranthaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begoniales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinnatae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junciflorae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lycopsida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amarylkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaryllidaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boraginales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteanae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliiflorae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocotyledoneae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanerczowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anacardiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dzwonkowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campanulales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosiflorae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polycarpicae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphenopsida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selerowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaparowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capparales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubiflorae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxopsida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toinowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apocynaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goździkowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caryophyllales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umbelliflorae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spadiciflorae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostrokrzewowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquifoliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dławiszowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celastrales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obrazkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cercidiphyllales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araliowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komelinowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commelinales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arekowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arecaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dereniowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kokornakowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aristolochiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciborowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trojeściowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asclepiadaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szczeciowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dipsacales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nerecznicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspidiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skrzypowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equisetales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zanokcicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspleniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrzosowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ericales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asteraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilczomleczowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euphorbiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wietlicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athyriaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bobowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niecierpkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balsaminaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fagales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begoniowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begoniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gentianales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berberysowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berberidaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geraniales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brzozowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betulaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ginkgoales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bignoniowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bignoniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grossulariales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podrzeniowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blechnaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haloragales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogórecznikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boraginaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamamelidales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapustowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brassicaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocharitales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budlejowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buddlejaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iridales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butomaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoëtales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukszpanowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buxaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juglandales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brezylkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caesalpiniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rześlowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callitrichaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kielichowcowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calycanthaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dzwonkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campanulaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konopiowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannabaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lycopodiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnoliales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaparowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capparaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malvales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przewiertniowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caprifoliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marsileales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goździkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caryophyllaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myricales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dławiszowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celastraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrtales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rogatkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceratophyllaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaeales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grujecznikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cercidiphyllaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oleales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komosowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chenopodiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ophioglossales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czystkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cistaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komelinowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commelinaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osmundales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powojowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convolvulaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paeoniales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dereniowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pandanales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leszczynowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corylaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papaverales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gruboszowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crassulaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passiflorales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cryptogrammaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dyniowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cucurbitaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piperales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprysowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cupressaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plumbaginales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaniankowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuscutaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciborowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polemoniales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szczeciowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dipsacaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygalales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosiczkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Droseraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygonales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliwnikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaeagnaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polypodiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadwodnikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elatinaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potamogetonales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bażynowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empetraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primulales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skrzypowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equisetaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrzosowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ericaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranunculales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilczomleczowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euphorbiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhamnales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bobowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fagaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dymnicowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fumariaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salicales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goryczkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gentianaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salviniales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bodziszkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geraniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santalales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ginkgoaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapindales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agrestowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grossulariaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saxifragales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wodnikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haloragaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrophulariales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oczarowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamamelidaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selaginellales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasztanowcowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippocastanaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamaricales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippuridaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huperziaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hortensjowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrangeaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymelaeales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Żabiściekowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocharitaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urticales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wąkrotowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocotylaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiołkowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Violales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faceliowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrophyllaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imbirowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zingiberales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dziurawcowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypericaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypolepidacaeae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosaćcowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iridaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poryblinowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoëtaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orzechowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juglandaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sitowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Świbkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncaginaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasnotowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemnaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pływaczowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lentibulariaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lnowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobeliowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobeliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gązewnikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loranthaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Widłakowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lycopodiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krwawnicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lythraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnoliowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnoliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ślazowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malvaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marsyliowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marsileaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martyniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bobrkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menyanthaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monotropaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morwowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woskownicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myricaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jezierzowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Najadaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nocnicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyctaginaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grzybieniowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaeaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliwkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oleaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiesiołkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onagraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasięźrzałowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ophioglossaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storczykowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchidaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zarazowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orobanchaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Długoszowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osmundaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szczawikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxalidaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piwoniowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paeoniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papaveraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dziewięciornikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parnassiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philadelphaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sosnowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Babkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantaginaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platanowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platanaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ołownicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plumbaginaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiechlinowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wielosiłowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polemoniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krzyżownicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygalaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rdestowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polygonaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paprotkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polypodiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portulakowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portulacaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rdestnicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potamogetonaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierwiosnkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primulaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srebrnikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteaceae</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="540">
+  <si>
+    <t>Rodzina polska (13)</t>
+  </si>
+  <si>
+    <t>Rodzina łacińska (14)</t>
+  </si>
+  <si>
+    <t>Rząd polska (15)</t>
+  </si>
+  <si>
+    <t>Rząd łacińska (16)</t>
+  </si>
+  <si>
+    <t>Nadrząd polska (17)</t>
+  </si>
+  <si>
+    <t>Nadrząd łacińska (18)</t>
+  </si>
+  <si>
+    <t>Podklasa polska (19)</t>
+  </si>
+  <si>
+    <t>Podklasa łacińska (20)</t>
+  </si>
+  <si>
+    <t>Klasa polska (21)</t>
+  </si>
+  <si>
+    <t>Klasa łacińska (22)</t>
+  </si>
+  <si>
+    <t>Podgromada polska (23)</t>
+  </si>
+  <si>
+    <t>Podgromada łacińska (24)</t>
+  </si>
+  <si>
+    <t>Gromada polska (25)</t>
+  </si>
+  <si>
+    <t>Gromada łacińska (26)</t>
+  </si>
+  <si>
+    <t>Królestwo polska (27)</t>
+  </si>
+  <si>
+    <t>Królestwo łacińska (28)</t>
+  </si>
+  <si>
+    <t>Klonowate</t>
+  </si>
+  <si>
+    <t>Aceraceae</t>
+  </si>
+  <si>
+    <t>Żabieńcowce</t>
+  </si>
+  <si>
+    <t>Alismatales</t>
+  </si>
+  <si>
+    <t>Campanulatae</t>
+  </si>
+  <si>
+    <t>Amentiferae</t>
+  </si>
+  <si>
+    <t>Coniferopsida</t>
+  </si>
+  <si>
+    <t>Okrytonasienne</t>
+  </si>
+  <si>
+    <t>Angiospermae</t>
+  </si>
+  <si>
+    <t>Paprotniki</t>
+  </si>
+  <si>
+    <t>Pteridophyta</t>
+  </si>
+  <si>
+    <t>Adiantowate</t>
+  </si>
+  <si>
+    <t>Adianthaceae</t>
+  </si>
+  <si>
+    <t>Selerowce</t>
+  </si>
+  <si>
+    <t>Apiales</t>
+  </si>
+  <si>
+    <t>Cistiflorae</t>
+  </si>
+  <si>
+    <t>Asteridae</t>
+  </si>
+  <si>
+    <t>Dicotyledoneae</t>
+  </si>
+  <si>
+    <t>Nagonasienne</t>
+  </si>
+  <si>
+    <t>Gymnospermae</t>
+  </si>
+  <si>
+    <t>Rośliny nasienne</t>
+  </si>
+  <si>
+    <t>Spermatophyta</t>
+  </si>
+  <si>
+    <t>Piżmaczkowate</t>
+  </si>
+  <si>
+    <t>Adoxaceae</t>
+  </si>
+  <si>
+    <t>Obrazkowce</t>
+  </si>
+  <si>
+    <t>Arales</t>
+  </si>
+  <si>
+    <t>Columniferae</t>
+  </si>
+  <si>
+    <t>Centrospermae</t>
+  </si>
+  <si>
+    <t>Eusporangiatae</t>
+  </si>
+  <si>
+    <t>Lycophytina</t>
+  </si>
+  <si>
+    <t>Agawowate</t>
+  </si>
+  <si>
+    <t>Agavaceae</t>
+  </si>
+  <si>
+    <t>Arekowce</t>
+  </si>
+  <si>
+    <t>Arecales</t>
+  </si>
+  <si>
+    <t>Disciflorae</t>
+  </si>
+  <si>
+    <t>Dilleniidae</t>
+  </si>
+  <si>
+    <t>Ginkgoopsida</t>
+  </si>
+  <si>
+    <t>Pterophytina</t>
+  </si>
+  <si>
+    <t>Pryszczyrnicowate</t>
+  </si>
+  <si>
+    <t>Aizoaceae</t>
+  </si>
+  <si>
+    <t>Kokornakowce</t>
+  </si>
+  <si>
+    <t>Aristolochiales</t>
+  </si>
+  <si>
+    <t>Heteromerae</t>
+  </si>
+  <si>
+    <t>Farinosae</t>
+  </si>
+  <si>
+    <t>Isoëtopsida</t>
+  </si>
+  <si>
+    <t>Sphenophytina</t>
+  </si>
+  <si>
+    <t>Żabieńcowate</t>
+  </si>
+  <si>
+    <t>Alismataceae</t>
+  </si>
+  <si>
+    <t>Astrowce</t>
+  </si>
+  <si>
+    <t>Asterales</t>
+  </si>
+  <si>
+    <t>Myrtiflorae</t>
+  </si>
+  <si>
+    <t>Helobiae</t>
+  </si>
+  <si>
+    <t>Leptosporangiatae</t>
+  </si>
+  <si>
+    <t>Szarłatowate</t>
+  </si>
+  <si>
+    <t>Amaranthaceae</t>
+  </si>
+  <si>
+    <t>Begoniales</t>
+  </si>
+  <si>
+    <t>Pinnatae</t>
+  </si>
+  <si>
+    <t>Junciflorae</t>
+  </si>
+  <si>
+    <t>Lycopsida</t>
+  </si>
+  <si>
+    <t>Amarylkowate</t>
+  </si>
+  <si>
+    <t>Amaryllidaceae</t>
+  </si>
+  <si>
+    <t>Boraginales</t>
+  </si>
+  <si>
+    <t>Proteanae</t>
+  </si>
+  <si>
+    <t>Liliiflorae</t>
+  </si>
+  <si>
+    <t>Monocotyledoneae</t>
+  </si>
+  <si>
+    <t>Nanerczowate</t>
+  </si>
+  <si>
+    <t>Anacardiaceae</t>
+  </si>
+  <si>
+    <t>Dzwonkowce</t>
+  </si>
+  <si>
+    <t>Campanulales</t>
+  </si>
+  <si>
+    <t>Rosiflorae</t>
+  </si>
+  <si>
+    <t>Polycarpicae</t>
+  </si>
+  <si>
+    <t>Sphenopsida</t>
+  </si>
+  <si>
+    <t>Selerowate</t>
+  </si>
+  <si>
+    <t>Apiaceae</t>
+  </si>
+  <si>
+    <t>Kaparowce</t>
+  </si>
+  <si>
+    <t>Capparales</t>
+  </si>
+  <si>
+    <t>Tubiflorae</t>
+  </si>
+  <si>
+    <t>Rosidae</t>
+  </si>
+  <si>
+    <t>Taxopsida</t>
+  </si>
+  <si>
+    <t>Toinowate</t>
+  </si>
+  <si>
+    <t>Apocynaceae</t>
+  </si>
+  <si>
+    <t>Goździkowce</t>
+  </si>
+  <si>
+    <t>Caryophyllales</t>
+  </si>
+  <si>
+    <t>Umbelliflorae</t>
+  </si>
+  <si>
+    <t>Spadiciflorae</t>
+  </si>
+  <si>
+    <t>Ostrokrzewowate</t>
+  </si>
+  <si>
+    <t>Aquifoliaceae</t>
+  </si>
+  <si>
+    <t>Dławiszowce</t>
+  </si>
+  <si>
+    <t>Celastrales</t>
+  </si>
+  <si>
+    <t>Obrazkowate</t>
+  </si>
+  <si>
+    <t>Araceae</t>
+  </si>
+  <si>
+    <t>Cercidiphyllales</t>
+  </si>
+  <si>
+    <t>Araliowate</t>
+  </si>
+  <si>
+    <t>Araliaceae</t>
+  </si>
+  <si>
+    <t>Komelinowce</t>
+  </si>
+  <si>
+    <t>Commelinales</t>
+  </si>
+  <si>
+    <t>Arekowate</t>
+  </si>
+  <si>
+    <t>Arecaceae</t>
+  </si>
+  <si>
+    <t>Dereniowce</t>
+  </si>
+  <si>
+    <t>Cornales</t>
+  </si>
+  <si>
+    <t>Kokornakowate</t>
+  </si>
+  <si>
+    <t>Aristolochiaceae</t>
+  </si>
+  <si>
+    <t>Ciborowce</t>
+  </si>
+  <si>
+    <t>Cyperales</t>
+  </si>
+  <si>
+    <t>Trojeściowate</t>
+  </si>
+  <si>
+    <t>Asclepiadaceae</t>
+  </si>
+  <si>
+    <t>Szczeciowce</t>
+  </si>
+  <si>
+    <t>Dipsacales</t>
+  </si>
+  <si>
+    <t>Nerecznicowate</t>
+  </si>
+  <si>
+    <t>Aspidiaceae</t>
+  </si>
+  <si>
+    <t>Skrzypowce</t>
+  </si>
+  <si>
+    <t>Equisetales</t>
+  </si>
+  <si>
+    <t>Zanokcicowate</t>
+  </si>
+  <si>
+    <t>Aspleniaceae</t>
+  </si>
+  <si>
+    <t>Wrzosowce</t>
+  </si>
+  <si>
+    <t>Ericales</t>
+  </si>
+  <si>
+    <t>Astrowate</t>
+  </si>
+  <si>
+    <t>Asteraceae</t>
+  </si>
+  <si>
+    <t>Wilczomleczowce</t>
+  </si>
+  <si>
+    <t>Euphorbiales</t>
+  </si>
+  <si>
+    <t>Wietlicowate</t>
+  </si>
+  <si>
+    <t>Athyriaceae</t>
+  </si>
+  <si>
+    <t>Bobowce</t>
+  </si>
+  <si>
+    <t>Fabales</t>
+  </si>
+  <si>
+    <t>Niecierpkowate</t>
+  </si>
+  <si>
+    <t>Balsaminaceae</t>
+  </si>
+  <si>
+    <t>Bukowce</t>
+  </si>
+  <si>
+    <t>Fagales</t>
+  </si>
+  <si>
+    <t>Begoniowate</t>
+  </si>
+  <si>
+    <t>Begoniaceae</t>
+  </si>
+  <si>
+    <t>Gentianales</t>
+  </si>
+  <si>
+    <t>Berberysowate</t>
+  </si>
+  <si>
+    <t>Berberidaceae</t>
+  </si>
+  <si>
+    <t>Geraniales</t>
+  </si>
+  <si>
+    <t>Brzozowate</t>
+  </si>
+  <si>
+    <t>Betulaceae</t>
+  </si>
+  <si>
+    <t>Ginkgoales</t>
+  </si>
+  <si>
+    <t>Bignoniowate</t>
+  </si>
+  <si>
+    <t>Bignoniaceae</t>
+  </si>
+  <si>
+    <t>Grossulariales</t>
+  </si>
+  <si>
+    <t>Podrzeniowate</t>
+  </si>
+  <si>
+    <t>Blechnaceae</t>
+  </si>
+  <si>
+    <t>Haloragales</t>
+  </si>
+  <si>
+    <t>Ogórecznikowate</t>
+  </si>
+  <si>
+    <t>Boraginaceae</t>
+  </si>
+  <si>
+    <t>Hamamelidales</t>
+  </si>
+  <si>
+    <t>Kapustowate</t>
+  </si>
+  <si>
+    <t>Brassicaceae</t>
+  </si>
+  <si>
+    <t>Hydrocharitales</t>
+  </si>
+  <si>
+    <t>Budlejowate</t>
+  </si>
+  <si>
+    <t>Buddlejaceae</t>
+  </si>
+  <si>
+    <t>Iridales</t>
+  </si>
+  <si>
+    <t>Butomaceae</t>
+  </si>
+  <si>
+    <t>Isoëtales</t>
+  </si>
+  <si>
+    <t>Bukszpanowate</t>
+  </si>
+  <si>
+    <t>Buxaceae</t>
+  </si>
+  <si>
+    <t>Juglandales</t>
+  </si>
+  <si>
+    <t>Brezylkowate</t>
+  </si>
+  <si>
+    <t>Caesalpiniaceae</t>
+  </si>
+  <si>
+    <t>Juncales</t>
+  </si>
+  <si>
+    <t>Rześlowate</t>
+  </si>
+  <si>
+    <t>Callitrichaceae</t>
+  </si>
+  <si>
+    <t>Lamiales</t>
+  </si>
+  <si>
+    <t>Kielichowcowate</t>
+  </si>
+  <si>
+    <t>Calycanthaceae</t>
+  </si>
+  <si>
+    <t>Laurales</t>
+  </si>
+  <si>
+    <t>Dzwonkowate</t>
+  </si>
+  <si>
+    <t>Campanulaceae</t>
+  </si>
+  <si>
+    <t>Liliales</t>
+  </si>
+  <si>
+    <t>Konopiowate</t>
+  </si>
+  <si>
+    <t>Cannabaceae</t>
+  </si>
+  <si>
+    <t>Lycopodiales</t>
+  </si>
+  <si>
+    <t>Cannaceae</t>
+  </si>
+  <si>
+    <t>Magnoliales</t>
+  </si>
+  <si>
+    <t>Kaparowate</t>
+  </si>
+  <si>
+    <t>Capparaceae</t>
+  </si>
+  <si>
+    <t>Malvales</t>
+  </si>
+  <si>
+    <t>Przewiertniowate</t>
+  </si>
+  <si>
+    <t>Caprifoliaceae</t>
+  </si>
+  <si>
+    <t>Marsileales</t>
+  </si>
+  <si>
+    <t>Goździkowate</t>
+  </si>
+  <si>
+    <t>Caryophyllaceae</t>
+  </si>
+  <si>
+    <t>Myricales</t>
+  </si>
+  <si>
+    <t>Dławiszowate</t>
+  </si>
+  <si>
+    <t>Celastraceae</t>
+  </si>
+  <si>
+    <t>Myrtales</t>
+  </si>
+  <si>
+    <t>Rogatkowate</t>
+  </si>
+  <si>
+    <t>Ceratophyllaceae</t>
+  </si>
+  <si>
+    <t>Nymphaeales</t>
+  </si>
+  <si>
+    <t>Grujecznikowate</t>
+  </si>
+  <si>
+    <t>Cercidiphyllaceae</t>
+  </si>
+  <si>
+    <t>Oleales</t>
+  </si>
+  <si>
+    <t>Komosowate</t>
+  </si>
+  <si>
+    <t>Chenopodiaceae</t>
+  </si>
+  <si>
+    <t>Ophioglossales</t>
+  </si>
+  <si>
+    <t>Czystkowate</t>
+  </si>
+  <si>
+    <t>Cistaceae</t>
+  </si>
+  <si>
+    <t>Orchidales</t>
+  </si>
+  <si>
+    <t>Komelinowate</t>
+  </si>
+  <si>
+    <t>Commelinaceae</t>
+  </si>
+  <si>
+    <t>Osmundales</t>
+  </si>
+  <si>
+    <t>Powojowate</t>
+  </si>
+  <si>
+    <t>Convolvulaceae</t>
+  </si>
+  <si>
+    <t>Paeoniales</t>
+  </si>
+  <si>
+    <t>Dereniowate</t>
+  </si>
+  <si>
+    <t>Cornaceae</t>
+  </si>
+  <si>
+    <t>Pandanales</t>
+  </si>
+  <si>
+    <t>Leszczynowate</t>
+  </si>
+  <si>
+    <t>Corylaceae</t>
+  </si>
+  <si>
+    <t>Papaverales</t>
+  </si>
+  <si>
+    <t>Gruboszowate</t>
+  </si>
+  <si>
+    <t>Crassulaceae</t>
+  </si>
+  <si>
+    <t>Passiflorales</t>
+  </si>
+  <si>
+    <t>Cryptogrammaceae</t>
+  </si>
+  <si>
+    <t>Pinales</t>
+  </si>
+  <si>
+    <t>Dyniowate</t>
+  </si>
+  <si>
+    <t>Cucurbitaceae</t>
+  </si>
+  <si>
+    <t>Piperales</t>
+  </si>
+  <si>
+    <t>Cyprysowate</t>
+  </si>
+  <si>
+    <t>Cupressaceae</t>
+  </si>
+  <si>
+    <t>Plumbaginales</t>
+  </si>
+  <si>
+    <t>Kaniankowate</t>
+  </si>
+  <si>
+    <t>Cuscutaceae</t>
+  </si>
+  <si>
+    <t>Poales</t>
+  </si>
+  <si>
+    <t>Ciborowate</t>
+  </si>
+  <si>
+    <t>Cyperaceae</t>
+  </si>
+  <si>
+    <t>Polemoniales</t>
+  </si>
+  <si>
+    <t>Szczeciowate</t>
+  </si>
+  <si>
+    <t>Dipsacaceae</t>
+  </si>
+  <si>
+    <t>Polygalales</t>
+  </si>
+  <si>
+    <t>Rosiczkowate</t>
+  </si>
+  <si>
+    <t>Droseraceae</t>
+  </si>
+  <si>
+    <t>Polygonales</t>
+  </si>
+  <si>
+    <t>Oliwnikowate</t>
+  </si>
+  <si>
+    <t>Elaeagnaceae</t>
+  </si>
+  <si>
+    <t>Polypodiales</t>
+  </si>
+  <si>
+    <t>Nadwodnikowate</t>
+  </si>
+  <si>
+    <t>Elatinaceae</t>
+  </si>
+  <si>
+    <t>Potamogetonales</t>
+  </si>
+  <si>
+    <t>Bażynowate</t>
+  </si>
+  <si>
+    <t>Empetraceae</t>
+  </si>
+  <si>
+    <t>Primulales</t>
+  </si>
+  <si>
+    <t>Skrzypowate</t>
+  </si>
+  <si>
+    <t>Equisetaceae</t>
+  </si>
+  <si>
+    <t>Proteales</t>
+  </si>
+  <si>
+    <t>Wrzosowate</t>
+  </si>
+  <si>
+    <t>Ericaceae</t>
+  </si>
+  <si>
+    <t>Ranunculales</t>
+  </si>
+  <si>
+    <t>Wilczomleczowate</t>
+  </si>
+  <si>
+    <t>Euphorbiaceae</t>
+  </si>
+  <si>
+    <t>Rhamnales</t>
+  </si>
+  <si>
+    <t>Bobowate</t>
+  </si>
+  <si>
+    <t>Fabaceae</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
+    <t>Bukowate</t>
+  </si>
+  <si>
+    <t>Fagaceae</t>
+  </si>
+  <si>
+    <t>Rutales</t>
+  </si>
+  <si>
+    <t>Dymnicowe</t>
+  </si>
+  <si>
+    <t>Fumariaceae</t>
+  </si>
+  <si>
+    <t>Salicales</t>
+  </si>
+  <si>
+    <t>Goryczkowate</t>
+  </si>
+  <si>
+    <t>Gentianaceae</t>
+  </si>
+  <si>
+    <t>Salviniales</t>
+  </si>
+  <si>
+    <t>Bodziszkowate</t>
+  </si>
+  <si>
+    <t>Geraniaceae</t>
+  </si>
+  <si>
+    <t>Santalales</t>
+  </si>
+  <si>
+    <t>Ginkgoaceae</t>
+  </si>
+  <si>
+    <t>Sapindales</t>
+  </si>
+  <si>
+    <t>Agrestowate</t>
+  </si>
+  <si>
+    <t>Grossulariaceae</t>
+  </si>
+  <si>
+    <t>Saxifragales</t>
+  </si>
+  <si>
+    <t>Wodnikowate</t>
+  </si>
+  <si>
+    <t>Haloragaceae</t>
+  </si>
+  <si>
+    <t>Scrophulariales</t>
+  </si>
+  <si>
+    <t>Oczarowate</t>
+  </si>
+  <si>
+    <t>Hamamelidaceae</t>
+  </si>
+  <si>
+    <t>Selaginellales</t>
+  </si>
+  <si>
+    <t>Kasztanowcowate</t>
+  </si>
+  <si>
+    <t>Hippocastanaceae</t>
+  </si>
+  <si>
+    <t>Tamaricales</t>
+  </si>
+  <si>
+    <t>Hippuridaceae</t>
+  </si>
+  <si>
+    <t>Taxales</t>
+  </si>
+  <si>
+    <t>Huperziaceae</t>
+  </si>
+  <si>
+    <t>Theales</t>
+  </si>
+  <si>
+    <t>Hortensjowate</t>
+  </si>
+  <si>
+    <t>Hydrangeaceae</t>
+  </si>
+  <si>
+    <t>Thymelaeales</t>
+  </si>
+  <si>
+    <t>Żabiściekowate</t>
+  </si>
+  <si>
+    <t>Hydrocharitaceae</t>
+  </si>
+  <si>
+    <t>Urticales</t>
+  </si>
+  <si>
+    <t>Wąkrotowate</t>
+  </si>
+  <si>
+    <t>Hydrocotylaceae</t>
+  </si>
+  <si>
+    <t>Fiołkowce</t>
+  </si>
+  <si>
+    <t>Violales</t>
+  </si>
+  <si>
+    <t>Faceliowate</t>
+  </si>
+  <si>
+    <t>Hydrophyllaceae</t>
+  </si>
+  <si>
+    <t>Imbirowce</t>
+  </si>
+  <si>
+    <t>Zingiberales</t>
+  </si>
+  <si>
+    <t>Dziurawcowate</t>
+  </si>
+  <si>
+    <t>Hypericaceae</t>
+  </si>
+  <si>
+    <t>Hypolepidacaeae</t>
+  </si>
+  <si>
+    <t>Kosaćcowate</t>
+  </si>
+  <si>
+    <t>Iridaceae</t>
+  </si>
+  <si>
+    <t>Poryblinowate</t>
+  </si>
+  <si>
+    <t>Isoëtaceae</t>
+  </si>
+  <si>
+    <t>Orzechowate</t>
+  </si>
+  <si>
+    <t>Juglandaceae</t>
+  </si>
+  <si>
+    <t>Sitowate</t>
+  </si>
+  <si>
+    <t>Juncaceae</t>
+  </si>
+  <si>
+    <t>Świbkowate</t>
+  </si>
+  <si>
+    <t>Juncaginaceae</t>
+  </si>
+  <si>
+    <t>Jasnotowate</t>
+  </si>
+  <si>
+    <t>Lamiaceae</t>
+  </si>
+  <si>
+    <t>Lemnaceae</t>
+  </si>
+  <si>
+    <t>Pływaczowate</t>
+  </si>
+  <si>
+    <t>Lentibulariaceae</t>
+  </si>
+  <si>
+    <t>Liliowate</t>
+  </si>
+  <si>
+    <t>Liliaceae</t>
+  </si>
+  <si>
+    <t>Lnowate</t>
+  </si>
+  <si>
+    <t>Linaceae</t>
+  </si>
+  <si>
+    <t>Lobeliowate</t>
+  </si>
+  <si>
+    <t>Lobeliaceae</t>
+  </si>
+  <si>
+    <t>Gązewnikowate</t>
+  </si>
+  <si>
+    <t>Loranthaceae</t>
+  </si>
+  <si>
+    <t>Widłakowate</t>
+  </si>
+  <si>
+    <t>Lycopodiaceae</t>
+  </si>
+  <si>
+    <t>Krwawnicowate</t>
+  </si>
+  <si>
+    <t>Lythraceae</t>
+  </si>
+  <si>
+    <t>Magnoliowate</t>
+  </si>
+  <si>
+    <t>Magnoliaceae</t>
+  </si>
+  <si>
+    <t>Ślazowate</t>
+  </si>
+  <si>
+    <t>Malvaceae</t>
+  </si>
+  <si>
+    <t>Marsyliowate</t>
+  </si>
+  <si>
+    <t>Marsileaceae</t>
+  </si>
+  <si>
+    <t>Martyniaceae</t>
+  </si>
+  <si>
+    <t>Bobrkowate</t>
+  </si>
+  <si>
+    <t>Menyanthaceae</t>
+  </si>
+  <si>
+    <t>Monotropaceae</t>
+  </si>
+  <si>
+    <t>Morwowate</t>
+  </si>
+  <si>
+    <t>Moraceae</t>
+  </si>
+  <si>
+    <t>Woskownicowate</t>
+  </si>
+  <si>
+    <t>Myricaceae</t>
+  </si>
+  <si>
+    <t>Jezierzowate</t>
+  </si>
+  <si>
+    <t>Najadaceae</t>
+  </si>
+  <si>
+    <t>Nocnicowate</t>
+  </si>
+  <si>
+    <t>Nyctaginaceae</t>
+  </si>
+  <si>
+    <t>Grzybieniowate</t>
+  </si>
+  <si>
+    <t>Nymphaeaceae</t>
+  </si>
+  <si>
+    <t>Oliwkowate</t>
+  </si>
+  <si>
+    <t>Oleaceae</t>
+  </si>
+  <si>
+    <t>Wiesiołkowate</t>
+  </si>
+  <si>
+    <t>Onagraceae</t>
+  </si>
+  <si>
+    <t>Nasięźrzałowate</t>
+  </si>
+  <si>
+    <t>Ophioglossaceae</t>
+  </si>
+  <si>
+    <t>Storczykowate</t>
+  </si>
+  <si>
+    <t>Orchidaceae</t>
+  </si>
+  <si>
+    <t>Zarazowate</t>
+  </si>
+  <si>
+    <t>Orobanchaceae</t>
+  </si>
+  <si>
+    <t>Długoszowate</t>
+  </si>
+  <si>
+    <t>Osmundaceae</t>
+  </si>
+  <si>
+    <t>Szczawikowate</t>
+  </si>
+  <si>
+    <t>Oxalidaceae</t>
+  </si>
+  <si>
+    <t>Piwoniowate</t>
+  </si>
+  <si>
+    <t>Paeoniaceae</t>
+  </si>
+  <si>
+    <t>Makowate</t>
+  </si>
+  <si>
+    <t>Papaveraceae</t>
+  </si>
+  <si>
+    <t>Dziewięciornikowate</t>
+  </si>
+  <si>
+    <t>Parnassiaceae</t>
+  </si>
+  <si>
+    <t>Philadelphaceae</t>
+  </si>
+  <si>
+    <t>Sosnowate</t>
+  </si>
+  <si>
+    <t>Pinaceae</t>
+  </si>
+  <si>
+    <t>Babkowate</t>
+  </si>
+  <si>
+    <t>Plantaginaceae</t>
+  </si>
+  <si>
+    <t>Platanowate</t>
+  </si>
+  <si>
+    <t>Platanaceae</t>
+  </si>
+  <si>
+    <t>Ołownicowate</t>
+  </si>
+  <si>
+    <t>Plumbaginaceae</t>
+  </si>
+  <si>
+    <t>Wiechlinowate</t>
+  </si>
+  <si>
+    <t>Poaceae</t>
+  </si>
+  <si>
+    <t>Wielosiłowate</t>
+  </si>
+  <si>
+    <t>Polemoniaceae</t>
+  </si>
+  <si>
+    <t>Krzyżownicowate</t>
+  </si>
+  <si>
+    <t>Polygalaceae</t>
+  </si>
+  <si>
+    <t>Rdestowate</t>
+  </si>
+  <si>
+    <t>Polygonaceae</t>
+  </si>
+  <si>
+    <t>Paprotkowate</t>
+  </si>
+  <si>
+    <t>Polypodiaceae</t>
+  </si>
+  <si>
+    <t>Portulakowate</t>
+  </si>
+  <si>
+    <t>Portulacaceae</t>
+  </si>
+  <si>
+    <t>Rdestnicowate</t>
+  </si>
+  <si>
+    <t>Potamogetonaceae</t>
+  </si>
+  <si>
+    <t>Pierwiosnkowate</t>
+  </si>
+  <si>
+    <t>Primulaceae</t>
+  </si>
+  <si>
+    <t>Srebrnikowate</t>
+  </si>
+  <si>
+    <t>Proteaceae</t>
   </si>
   <si>
     <t xml:space="preserve">Gruszyczkowate </t>
   </si>
   <si>
-    <t xml:space="preserve">Pyrolaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaskrowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranunculaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rezedowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resedaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szakłakowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhamnaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Różowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marzanowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rupiowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruppiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myszopłochowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruscaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wierzbowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salicaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salwiniowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salviniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandałowcowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santalaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saururowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saururaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skalnicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saxifragaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scheuchzeriaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trędownikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrophulariaceae</t>
+    <t>Pyrolaceae</t>
+  </si>
+  <si>
+    <t>Jaskrowate</t>
+  </si>
+  <si>
+    <t>Ranunculaceae</t>
+  </si>
+  <si>
+    <t>Rezedowate</t>
+  </si>
+  <si>
+    <t>Resedaceae</t>
+  </si>
+  <si>
+    <t>Szakłakowate</t>
+  </si>
+  <si>
+    <t>Rhamnaceae</t>
+  </si>
+  <si>
+    <t>Różowate</t>
+  </si>
+  <si>
+    <t>Rosaceae</t>
+  </si>
+  <si>
+    <t>Marzanowate</t>
+  </si>
+  <si>
+    <t>Rubiaceae</t>
+  </si>
+  <si>
+    <t>Rupiowate</t>
+  </si>
+  <si>
+    <t>Ruppiaceae</t>
+  </si>
+  <si>
+    <t>Myszopłochowate</t>
+  </si>
+  <si>
+    <t>Ruscaceae</t>
+  </si>
+  <si>
+    <t>Rutowate</t>
+  </si>
+  <si>
+    <t>Rutaceae</t>
+  </si>
+  <si>
+    <t>Wierzbowate</t>
+  </si>
+  <si>
+    <t>Salicaceae</t>
+  </si>
+  <si>
+    <t>Salwiniowate</t>
+  </si>
+  <si>
+    <t>Salviniaceae</t>
+  </si>
+  <si>
+    <t>Sandałowcowate</t>
+  </si>
+  <si>
+    <t>Santalaceae</t>
+  </si>
+  <si>
+    <t>Saururowate</t>
+  </si>
+  <si>
+    <t>Saururaceae</t>
+  </si>
+  <si>
+    <t>Skalnicowate</t>
+  </si>
+  <si>
+    <t>Saxifragaceae</t>
+  </si>
+  <si>
+    <t>Scheuchzeriaceae</t>
+  </si>
+  <si>
+    <t>Trędownikowate</t>
+  </si>
+  <si>
+    <t>Scrophulariaceae</t>
   </si>
   <si>
     <t xml:space="preserve">Widliczkowate </t>
   </si>
   <si>
-    <t xml:space="preserve">Selaginellaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biegunecznikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simaroubaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psiankowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solanaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeżogłówkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sparganiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kłokoczkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staphyleaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamaryszkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamaricaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxodiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zachylnikowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thelypteridaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wawrzynkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymelaeaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotewkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trójlistowce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trilliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasturcjowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropaeolaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pałkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typhaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiązowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulmaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pokrzywowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urticaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kozłkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valerianaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verbenaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiołkowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Violaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winoroślowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zamętnicowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zannichelliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zosterowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zosteraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parolistowate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zygophyllaceae</t>
+    <t>Selaginellaceae</t>
+  </si>
+  <si>
+    <t>Biegunecznikowate</t>
+  </si>
+  <si>
+    <t>Simaroubaceae</t>
+  </si>
+  <si>
+    <t>Psiankowate</t>
+  </si>
+  <si>
+    <t>Solanaceae</t>
+  </si>
+  <si>
+    <t>Jeżogłówkowate</t>
+  </si>
+  <si>
+    <t>Sparganiaceae</t>
+  </si>
+  <si>
+    <t>Kłokoczkowate</t>
+  </si>
+  <si>
+    <t>Staphyleaceae</t>
+  </si>
+  <si>
+    <t>Tamaryszkowate</t>
+  </si>
+  <si>
+    <t>Tamaricaceae</t>
+  </si>
+  <si>
+    <t>Cisowate</t>
+  </si>
+  <si>
+    <t>Taxaceae</t>
+  </si>
+  <si>
+    <t>Taxodiaceae</t>
+  </si>
+  <si>
+    <t>Zachylnikowate</t>
+  </si>
+  <si>
+    <t>Thelypteridaceae</t>
+  </si>
+  <si>
+    <t>Wawrzynkowate</t>
+  </si>
+  <si>
+    <t>Thymelaeaceae</t>
+  </si>
+  <si>
+    <t>Lipowate</t>
+  </si>
+  <si>
+    <t>Tiliaceae</t>
+  </si>
+  <si>
+    <t>Kotewkowate</t>
+  </si>
+  <si>
+    <t>Trapaceae</t>
+  </si>
+  <si>
+    <t>Trójlistowce</t>
+  </si>
+  <si>
+    <t>Trilliaceae</t>
+  </si>
+  <si>
+    <t>Nasturcjowate</t>
+  </si>
+  <si>
+    <t>Tropaeolaceae</t>
+  </si>
+  <si>
+    <t>Pałkowate</t>
+  </si>
+  <si>
+    <t>Typhaceae</t>
+  </si>
+  <si>
+    <t>Wiązowate</t>
+  </si>
+  <si>
+    <t>Ulmaceae</t>
+  </si>
+  <si>
+    <t>Pokrzywowate</t>
+  </si>
+  <si>
+    <t>Urticaceae</t>
+  </si>
+  <si>
+    <t>Kozłkowate</t>
+  </si>
+  <si>
+    <t>Valerianaceae</t>
+  </si>
+  <si>
+    <t>Verbenaceae</t>
+  </si>
+  <si>
+    <t>Fiołkowate</t>
+  </si>
+  <si>
+    <t>Violaceae</t>
+  </si>
+  <si>
+    <t>Winoroślowate</t>
+  </si>
+  <si>
+    <t>Vitaceae</t>
+  </si>
+  <si>
+    <t>Zamętnicowate</t>
+  </si>
+  <si>
+    <t>Zannichelliaceae</t>
+  </si>
+  <si>
+    <t>Zosterowate</t>
+  </si>
+  <si>
+    <t>Zosteraceae</t>
+  </si>
+  <si>
+    <t>Parolistowate</t>
+  </si>
+  <si>
+    <t>Zygophyllaceae</t>
+  </si>
+  <si>
+    <t>Goryczkowce</t>
+  </si>
+  <si>
+    <t>Bodziszkowce</t>
+  </si>
+  <si>
+    <t>Miłorzębowce</t>
+  </si>
+  <si>
+    <t>Wodnikowce</t>
+  </si>
+  <si>
+    <t>Oczarowce</t>
+  </si>
+  <si>
+    <t>Żabiściekowce</t>
+  </si>
+  <si>
+    <t>Pokrzywowce</t>
+  </si>
+  <si>
+    <t>Wawrzynkowce</t>
+  </si>
+  <si>
+    <t>Herbatowce</t>
+  </si>
+  <si>
+    <t>Cisowce</t>
+  </si>
+  <si>
+    <t>Widliczkowce</t>
+  </si>
+  <si>
+    <t>Trędownikowce</t>
+  </si>
+  <si>
+    <t>Skalnicowce</t>
+  </si>
+  <si>
+    <t>Kosaćcowce</t>
+  </si>
+  <si>
+    <t>Poryblinowce</t>
+  </si>
+  <si>
+    <t>Orzechowce</t>
+  </si>
+  <si>
+    <t>Sitowce</t>
+  </si>
+  <si>
+    <t>Jasnotowce</t>
+  </si>
+  <si>
+    <t>Wawrzynowce</t>
+  </si>
+  <si>
+    <t>Mydleńcowce</t>
+  </si>
+  <si>
+    <t>Sandałowce</t>
+  </si>
+  <si>
+    <t>Salwiniowce</t>
+  </si>
+  <si>
+    <t>Wierzbowce</t>
+  </si>
+  <si>
+    <t>Liliowce</t>
+  </si>
+  <si>
+    <t>Widłakowce</t>
+  </si>
+  <si>
+    <t>Grzybieniowce</t>
+  </si>
+  <si>
+    <t>Mirtowce</t>
+  </si>
+  <si>
+    <t>Woskownicowce</t>
+  </si>
+  <si>
+    <t>Ślazowce</t>
+  </si>
+  <si>
+    <t>Magnoliowce</t>
+  </si>
+  <si>
+    <t>Oliwkowce</t>
+  </si>
+  <si>
+    <t>Nasięźrzałowce</t>
+  </si>
+  <si>
+    <t>Storczykowce</t>
+  </si>
+  <si>
+    <t>Długoszowce</t>
+  </si>
+  <si>
+    <t>Piwoniowce</t>
+  </si>
+  <si>
+    <t>Pandanowce</t>
+  </si>
+  <si>
+    <t>Makowce</t>
+  </si>
+  <si>
+    <t>Sosnowce</t>
+  </si>
+  <si>
+    <t>Pieprzowce</t>
+  </si>
+  <si>
+    <t>Ołownicowce</t>
+  </si>
+  <si>
+    <t>Wiechlinowce</t>
+  </si>
+  <si>
+    <t>Rdestowce</t>
+  </si>
+  <si>
+    <t>Paprotkowce</t>
+  </si>
+  <si>
+    <t>Rdestnicowce</t>
+  </si>
+  <si>
+    <t>Pierwiosnkowce</t>
+  </si>
+  <si>
+    <t>Srebrnikowce</t>
+  </si>
+  <si>
+    <t>Jaskrowce</t>
+  </si>
+  <si>
+    <t>Szakłakowce</t>
+  </si>
+  <si>
+    <t>Różowce</t>
+  </si>
+  <si>
+    <t>Rutowce</t>
+  </si>
+  <si>
+    <t>Begoniowce</t>
+  </si>
+  <si>
+    <t>Ogórecznikowce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1502,22 +1659,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1534,7 +1676,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1542,89 +1684,325 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" width="17.85546875"/>
+    <col min="2" max="2" width="19"/>
+    <col min="3" max="3" width="19.7109375"/>
+    <col min="4" max="4" width="16.140625"/>
+    <col min="5" max="5" width="18.140625"/>
+    <col min="6" max="6" width="19.28515625"/>
+    <col min="7" max="7" width="18.5703125"/>
+    <col min="8" max="8" width="19.85546875"/>
+    <col min="9" max="9" width="15.42578125"/>
+    <col min="10" max="10" width="18.140625"/>
+    <col min="11" max="11" width="22"/>
+    <col min="12" max="12" width="23.140625"/>
+    <col min="13" max="13" width="18.85546875"/>
+    <col min="14" max="14" width="20.140625"/>
+    <col min="15" max="15" width="19.7109375"/>
+    <col min="16" max="16" width="21.140625"/>
+    <col min="17" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +2052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1714,7 +2092,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1754,7 +2132,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1788,7 +2166,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1821,7 +2199,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
@@ -1854,7 +2232,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -1884,14 +2262,16 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>71</v>
       </c>
@@ -1912,14 +2292,16 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>539</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>77</v>
       </c>
@@ -1940,7 +2322,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>81</v>
       </c>
@@ -1970,7 +2352,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
@@ -2000,7 +2382,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
@@ -2027,7 +2409,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>101</v>
       </c>
@@ -2050,7 +2432,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
@@ -2069,7 +2451,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>108</v>
       </c>
@@ -2090,7 +2472,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>112</v>
       </c>
@@ -2111,7 +2493,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>116</v>
       </c>
@@ -2132,7 +2514,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -2153,7 +2535,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>124</v>
       </c>
@@ -2174,7 +2556,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>128</v>
       </c>
@@ -2195,7 +2577,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>132</v>
       </c>
@@ -2216,7 +2598,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>136</v>
       </c>
@@ -2237,7 +2619,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>140</v>
       </c>
@@ -2258,14 +2640,16 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>146</v>
       </c>
@@ -2277,14 +2661,16 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>149</v>
       </c>
@@ -2296,14 +2682,16 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>490</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>152</v>
       </c>
@@ -2315,7 +2703,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -2334,14 +2722,16 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>158</v>
       </c>
@@ -2353,14 +2743,16 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>161</v>
       </c>
@@ -2372,14 +2764,16 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>164</v>
       </c>
@@ -2391,14 +2785,16 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>167</v>
       </c>
@@ -2410,14 +2806,16 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>502</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>169</v>
       </c>
@@ -2429,14 +2827,16 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>172</v>
       </c>
@@ -2448,14 +2848,16 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>175</v>
       </c>
@@ -2467,14 +2869,16 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>505</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>178</v>
       </c>
@@ -2486,14 +2890,16 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>506</v>
+      </c>
       <c r="D36" s="2" t="s">
         <v>181</v>
       </c>
@@ -2505,14 +2911,16 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>511</v>
+      </c>
       <c r="D37" s="2" t="s">
         <v>184</v>
       </c>
@@ -2524,14 +2932,16 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="D38" s="2" t="s">
         <v>187</v>
       </c>
@@ -2543,12 +2953,14 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>189</v>
       </c>
@@ -2560,14 +2972,16 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>516</v>
+      </c>
       <c r="D40" s="2" t="s">
         <v>192</v>
       </c>
@@ -2579,14 +2993,16 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>195</v>
       </c>
@@ -2598,14 +3014,16 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>515</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>198</v>
       </c>
@@ -2617,14 +3035,16 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>201</v>
       </c>
@@ -2636,14 +3056,16 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>513</v>
+      </c>
       <c r="D44" s="2" t="s">
         <v>204</v>
       </c>
@@ -2655,14 +3077,16 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="D45" s="2" t="s">
         <v>207</v>
       </c>
@@ -2674,14 +3098,16 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="D46" s="2" t="s">
         <v>210</v>
       </c>
@@ -2693,14 +3119,16 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="D47" s="2" t="s">
         <v>213</v>
       </c>
@@ -2712,14 +3140,16 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="D48" s="2" t="s">
         <v>216</v>
       </c>
@@ -2731,14 +3161,16 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="D49" s="2" t="s">
         <v>219</v>
       </c>
@@ -2750,14 +3182,16 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="D50" s="2" t="s">
         <v>222</v>
       </c>
@@ -2769,14 +3203,16 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>524</v>
+      </c>
       <c r="D51" s="2" t="s">
         <v>225</v>
       </c>
@@ -2788,7 +3224,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>226</v>
       </c>
@@ -2807,12 +3243,14 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="D53" s="2" t="s">
         <v>230</v>
       </c>
@@ -2824,14 +3262,16 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>526</v>
+      </c>
       <c r="D54" s="2" t="s">
         <v>233</v>
       </c>
@@ -2843,14 +3283,16 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="D55" s="2" t="s">
         <v>236</v>
       </c>
@@ -2862,14 +3304,16 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="D56" s="2" t="s">
         <v>239</v>
       </c>
@@ -2881,7 +3325,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>240</v>
       </c>
@@ -2900,7 +3344,7 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>243</v>
       </c>
@@ -2919,14 +3363,16 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>529</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>248</v>
       </c>
@@ -2938,14 +3384,16 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>530</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>251</v>
       </c>
@@ -2957,14 +3405,16 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>531</v>
+      </c>
       <c r="D61" s="2" t="s">
         <v>254</v>
       </c>
@@ -2976,14 +3426,16 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>532</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>257</v>
       </c>
@@ -2995,14 +3447,16 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>533</v>
+      </c>
       <c r="D63" s="2" t="s">
         <v>260</v>
       </c>
@@ -3014,14 +3468,16 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>534</v>
+      </c>
       <c r="D64" s="2" t="s">
         <v>263</v>
       </c>
@@ -3033,14 +3489,16 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>266</v>
       </c>
@@ -3052,14 +3510,16 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>536</v>
+      </c>
       <c r="D66" s="2" t="s">
         <v>269</v>
       </c>
@@ -3071,14 +3531,16 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>537</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>272</v>
       </c>
@@ -3090,14 +3552,16 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="D68" s="2" t="s">
         <v>275</v>
       </c>
@@ -3109,14 +3573,16 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="D69" s="2" t="s">
         <v>278</v>
       </c>
@@ -3128,14 +3594,16 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="D70" s="2" t="s">
         <v>281</v>
       </c>
@@ -3147,14 +3615,16 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="D71" s="2" t="s">
         <v>283</v>
       </c>
@@ -3166,14 +3636,16 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>500</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>286</v>
       </c>
@@ -3185,14 +3657,16 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="D73" s="2" t="s">
         <v>289</v>
       </c>
@@ -3204,14 +3678,16 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>498</v>
+      </c>
       <c r="D74" s="2" t="s">
         <v>292</v>
       </c>
@@ -3223,7 +3699,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>293</v>
       </c>
@@ -3242,12 +3718,14 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>497</v>
+      </c>
       <c r="D76" s="2" t="s">
         <v>297</v>
       </c>
@@ -3259,12 +3737,14 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>496</v>
+      </c>
       <c r="D77" s="2" t="s">
         <v>299</v>
       </c>
@@ -3276,14 +3756,16 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="D78" s="2" t="s">
         <v>302</v>
       </c>
@@ -3295,14 +3777,16 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>494</v>
+      </c>
       <c r="D79" s="2" t="s">
         <v>305</v>
       </c>
@@ -3314,7 +3798,7 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>306</v>
       </c>
@@ -3335,7 +3819,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>310</v>
       </c>
@@ -3356,7 +3840,7 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>314</v>
       </c>
@@ -3372,7 +3856,7 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
         <v>316</v>
@@ -3386,7 +3870,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>317</v>
       </c>
@@ -3402,7 +3886,7 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>319</v>
       </c>
@@ -3418,7 +3902,7 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>321</v>
       </c>
@@ -3434,7 +3918,7 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>323</v>
       </c>
@@ -3450,7 +3934,7 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>325</v>
       </c>
@@ -3466,7 +3950,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>327</v>
       </c>
@@ -3482,7 +3966,7 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
         <v>329</v>
@@ -3496,7 +3980,7 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>330</v>
       </c>
@@ -3512,7 +3996,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>332</v>
       </c>
@@ -3528,7 +4012,7 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>334</v>
       </c>
@@ -3544,7 +4028,7 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>336</v>
       </c>
@@ -3560,7 +4044,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>338</v>
       </c>
@@ -3576,7 +4060,7 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>340</v>
       </c>
@@ -3592,7 +4076,7 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>342</v>
       </c>
@@ -3608,7 +4092,7 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>344</v>
       </c>
@@ -3624,7 +4108,7 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>346</v>
       </c>
@@ -3640,7 +4124,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>348</v>
       </c>
@@ -3656,7 +4140,7 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
         <v>350</v>
@@ -3670,7 +4154,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>351</v>
       </c>
@@ -3686,7 +4170,7 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
         <v>353</v>
@@ -3700,7 +4184,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>354</v>
       </c>
@@ -3716,7 +4200,7 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>356</v>
       </c>
@@ -3732,7 +4216,7 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>358</v>
       </c>
@@ -3748,7 +4232,7 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>360</v>
       </c>
@@ -3764,7 +4248,7 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>362</v>
       </c>
@@ -3780,7 +4264,7 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>364</v>
       </c>
@@ -3796,7 +4280,7 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>366</v>
       </c>
@@ -3812,7 +4296,7 @@
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>368</v>
       </c>
@@ -3828,7 +4312,7 @@
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>370</v>
       </c>
@@ -3844,7 +4328,7 @@
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>372</v>
       </c>
@@ -3860,7 +4344,7 @@
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>374</v>
       </c>
@@ -3876,7 +4360,7 @@
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>376</v>
       </c>
@@ -3892,7 +4376,7 @@
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>378</v>
       </c>
@@ -3908,7 +4392,7 @@
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>380</v>
       </c>
@@ -3924,7 +4408,7 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>382</v>
       </c>
@@ -3940,7 +4424,7 @@
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>384</v>
@@ -3954,7 +4438,7 @@
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>385</v>
       </c>
@@ -3970,7 +4454,7 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>387</v>
       </c>
@@ -3986,7 +4470,7 @@
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>389</v>
       </c>
@@ -4002,7 +4486,7 @@
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>391</v>
       </c>
@@ -4018,7 +4502,7 @@
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>393</v>
       </c>
@@ -4034,7 +4518,7 @@
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>395</v>
       </c>
@@ -4050,7 +4534,7 @@
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>397</v>
       </c>
@@ -4066,7 +4550,7 @@
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>399</v>
       </c>
@@ -4082,7 +4566,7 @@
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>401</v>
       </c>
@@ -4098,7 +4582,7 @@
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>403</v>
       </c>
@@ -4114,7 +4598,7 @@
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>405</v>
       </c>
@@ -4130,7 +4614,7 @@
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>407</v>
       </c>
@@ -4146,7 +4630,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>409</v>
       </c>
@@ -4162,7 +4646,7 @@
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>411</v>
       </c>
@@ -4178,7 +4662,7 @@
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>413</v>
       </c>
@@ -4194,7 +4678,7 @@
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>415</v>
       </c>
@@ -4210,7 +4694,7 @@
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>417</v>
       </c>
@@ -4226,7 +4710,7 @@
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>419</v>
       </c>
@@ -4242,7 +4726,7 @@
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>421</v>
       </c>
@@ -4258,7 +4742,7 @@
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>423</v>
       </c>
@@ -4274,7 +4758,7 @@
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>425</v>
       </c>
@@ -4290,7 +4774,7 @@
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>427</v>
       </c>
@@ -4306,7 +4790,7 @@
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>429</v>
       </c>
@@ -4322,7 +4806,7 @@
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>431</v>
       </c>
@@ -4338,7 +4822,7 @@
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>433</v>
       </c>
@@ -4354,7 +4838,7 @@
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>435</v>
       </c>
@@ -4370,7 +4854,7 @@
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>437</v>
       </c>
@@ -4386,7 +4870,7 @@
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
         <v>439</v>
@@ -4400,7 +4884,7 @@
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>440</v>
       </c>
@@ -4416,7 +4900,7 @@
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>442</v>
       </c>
@@ -4432,7 +4916,7 @@
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>444</v>
       </c>
@@ -4448,7 +4932,7 @@
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>446</v>
       </c>
@@ -4464,7 +4948,7 @@
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>448</v>
       </c>
@@ -4480,7 +4964,7 @@
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>450</v>
       </c>
@@ -4496,7 +4980,7 @@
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>452</v>
       </c>
@@ -4512,7 +4996,7 @@
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>454</v>
       </c>
@@ -4528,7 +5012,7 @@
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>234</v>
       </c>
@@ -4544,7 +5028,7 @@
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>457</v>
       </c>
@@ -4560,7 +5044,7 @@
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>459</v>
       </c>
@@ -4576,7 +5060,7 @@
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>461</v>
       </c>
@@ -4592,7 +5076,7 @@
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>463</v>
       </c>
@@ -4608,7 +5092,7 @@
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>465</v>
       </c>
@@ -4624,7 +5108,7 @@
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>467</v>
       </c>
@@ -4640,7 +5124,7 @@
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>469</v>
       </c>
@@ -4656,7 +5140,7 @@
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>471</v>
       </c>
@@ -4672,7 +5156,7 @@
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>473</v>
       </c>
@@ -4688,7 +5172,7 @@
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>475</v>
       </c>
@@ -4704,7 +5188,7 @@
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>477</v>
       </c>
@@ -4720,7 +5204,7 @@
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>478</v>
       </c>
@@ -4736,7 +5220,7 @@
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>480</v>
       </c>
@@ -4752,7 +5236,7 @@
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>482</v>
       </c>
@@ -4768,7 +5252,7 @@
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>484</v>
       </c>
@@ -4784,7 +5268,7 @@
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>486</v>
       </c>
@@ -4801,12 +5285,7 @@
       <c r="P172" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BazaPolskichRodzinWGore.xlsx
+++ b/BazaPolskichRodzinWGore.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="574">
   <si>
     <t>Rodzina polska (13)</t>
   </si>
@@ -1644,6 +1644,108 @@
   </si>
   <si>
     <t>Ogórecznikowce</t>
+  </si>
+  <si>
+    <t>Paciorecznikowate</t>
+  </si>
+  <si>
+    <t>Zmienkowate</t>
+  </si>
+  <si>
+    <t>Przęstkowate</t>
+  </si>
+  <si>
+    <t>Wrońcowate</t>
+  </si>
+  <si>
+    <t>Orlicowate</t>
+  </si>
+  <si>
+    <t>Rzęsowate</t>
+  </si>
+  <si>
+    <t>Martyniowate</t>
+  </si>
+  <si>
+    <t>Korzeniówkowate</t>
+  </si>
+  <si>
+    <t>Jaśminowcowate</t>
+  </si>
+  <si>
+    <t>Bagnicowate</t>
+  </si>
+  <si>
+    <t>Grujecznikowce</t>
+  </si>
+  <si>
+    <t>Agrestowce</t>
+  </si>
+  <si>
+    <t>Męczennicowce</t>
+  </si>
+  <si>
+    <t>Wielosiłowe</t>
+  </si>
+  <si>
+    <t>Krzyżownicowce</t>
+  </si>
+  <si>
+    <t>Tamaryszkowce</t>
+  </si>
+  <si>
+    <t>Plantae</t>
+  </si>
+  <si>
+    <t>Rośliny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widłakowe </t>
+  </si>
+  <si>
+    <t>Jednoliścienne</t>
+  </si>
+  <si>
+    <t>Cisowe</t>
+  </si>
+  <si>
+    <t>Miłorzębowe</t>
+  </si>
+  <si>
+    <t>Szpilkowe</t>
+  </si>
+  <si>
+    <t>Dwuliścienne</t>
+  </si>
+  <si>
+    <t>Widłaki różnozarodnikowe</t>
+  </si>
+  <si>
+    <t>Paprocie grubozarodniowe</t>
+  </si>
+  <si>
+    <t>Paprocie cienkozarodniowe</t>
+  </si>
+  <si>
+    <t>Widłaki jednakozarodnikowe</t>
+  </si>
+  <si>
+    <t>Skrzypowe</t>
+  </si>
+  <si>
+    <t>Paprociowe</t>
+  </si>
+  <si>
+    <t>Kotkowe</t>
+  </si>
+  <si>
+    <t>Astrowe</t>
+  </si>
+  <si>
+    <t>Śródłone</t>
+  </si>
+  <si>
+    <t>Ukęślowe</t>
   </si>
 </sst>
 </file>
@@ -1977,13 +2079,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="19"/>
     <col min="3" max="3" width="19.7109375"/>
     <col min="4" max="4" width="16.140625"/>
@@ -1991,7 +2093,7 @@
     <col min="6" max="6" width="19.28515625"/>
     <col min="7" max="7" width="18.5703125"/>
     <col min="8" max="8" width="19.85546875"/>
-    <col min="9" max="9" width="15.42578125"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
     <col min="10" max="10" width="18.140625"/>
     <col min="11" max="11" width="22"/>
     <col min="12" max="12" width="23.140625"/>
@@ -2069,11 +2171,15 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>570</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2089,8 +2195,12 @@
       <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2109,11 +2219,15 @@
       <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>571</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>563</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2149,15 +2263,21 @@
       <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>565</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>45</v>
       </c>
@@ -2183,15 +2303,21 @@
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>573</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>569</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>53</v>
       </c>
@@ -2220,11 +2346,15 @@
       <c r="H6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>568</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>61</v>
       </c>
@@ -2253,7 +2383,9 @@
       <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>566</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>68</v>
       </c>
@@ -2283,7 +2415,9 @@
       <c r="H8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>567</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>74</v>
       </c>
@@ -2313,7 +2447,9 @@
       <c r="H9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>80</v>
       </c>
@@ -2343,7 +2479,9 @@
       <c r="H10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>568</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>87</v>
       </c>
@@ -2373,7 +2511,9 @@
       <c r="H11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>94</v>
       </c>
@@ -2439,7 +2579,9 @@
       <c r="B14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>107</v>
       </c>
@@ -2710,7 +2852,9 @@
       <c r="B27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>155</v>
       </c>
@@ -2954,7 +3098,9 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>540</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>188</v>
       </c>
@@ -3231,7 +3377,9 @@
       <c r="B52" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="D52" s="2" t="s">
         <v>228</v>
       </c>
@@ -3244,7 +3392,9 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>541</v>
+      </c>
       <c r="B53" s="2" t="s">
         <v>229</v>
       </c>
@@ -3332,7 +3482,9 @@
       <c r="B57" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="D57" s="2" t="s">
         <v>242</v>
       </c>
@@ -3351,7 +3503,9 @@
       <c r="B58" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="D58" s="2" t="s">
         <v>245</v>
       </c>
@@ -3706,7 +3860,9 @@
       <c r="B75" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="D75" s="2" t="s">
         <v>295</v>
       </c>
@@ -3719,7 +3875,9 @@
       <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="B76" s="2" t="s">
         <v>296</v>
       </c>
@@ -3738,7 +3896,9 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>543</v>
+      </c>
       <c r="B77" s="2" t="s">
         <v>298</v>
       </c>
@@ -3857,7 +4017,9 @@
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="2" t="s">
+        <v>544</v>
+      </c>
       <c r="B83" s="2" t="s">
         <v>316</v>
       </c>
@@ -3967,7 +4129,9 @@
       <c r="P89" s="2"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="B90" s="2" t="s">
         <v>329</v>
       </c>
@@ -4141,7 +4305,9 @@
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>546</v>
+      </c>
       <c r="B101" s="2" t="s">
         <v>350</v>
       </c>
@@ -4171,7 +4337,9 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="A103" s="2" t="s">
+        <v>547</v>
+      </c>
       <c r="B103" s="2" t="s">
         <v>353</v>
       </c>
@@ -4425,7 +4593,9 @@
       <c r="P118" s="2"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
+      <c r="A119" s="2" t="s">
+        <v>548</v>
+      </c>
       <c r="B119" s="2" t="s">
         <v>384</v>
       </c>
@@ -4871,7 +5041,9 @@
       <c r="P146" s="2"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="2" t="s">
+        <v>549</v>
+      </c>
       <c r="B147" s="2" t="s">
         <v>439</v>
       </c>

--- a/BazaPolskichRodzinWGore.xlsx
+++ b/BazaPolskichRodzinWGore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafal\Desktop\botanikaTesty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafal\Desktop\botanikaTesty\Nowy folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="580">
   <si>
     <t>Rodzina polska (13)</t>
   </si>
@@ -1746,6 +1746,24 @@
   </si>
   <si>
     <t>Ukęślowe</t>
+  </si>
+  <si>
+    <t>Bagienne</t>
+  </si>
+  <si>
+    <t>Sitowe</t>
+  </si>
+  <si>
+    <t>Liliokwiatowe</t>
+  </si>
+  <si>
+    <t>Wieloowockowe</t>
+  </si>
+  <si>
+    <t>Różowe</t>
+  </si>
+  <si>
+    <t>Kolbokwiatowe</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +2098,7 @@
   <dimension ref="A1:P172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,7 +2397,9 @@
       <c r="F7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
@@ -2411,7 +2431,9 @@
       <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>575</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
       </c>
@@ -2443,7 +2465,9 @@
       <c r="F9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>576</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>79</v>
       </c>
@@ -2475,7 +2499,9 @@
       <c r="F10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>577</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>86</v>
       </c>
@@ -2507,7 +2533,9 @@
       <c r="F11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>93</v>
       </c>
@@ -2539,7 +2567,9 @@
       <c r="F12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="H12" s="2" t="s">
         <v>100</v>
       </c>
